--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -1017,8 +1017,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1028,6 +1028,21 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1047,6 +1062,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1060,18 +1083,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,17 +1099,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,17 +1115,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1126,6 +1126,22 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1139,23 +1155,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,13 +1170,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,25 +1184,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,13 +1238,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,115 +1358,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,30 +1375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1417,35 +1393,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,11 +1434,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,145 +1483,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1982,7 +1982,7 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
       <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -1017,10 +1017,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1032,7 +1032,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,14 +1138,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,22 +1146,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,85 +1168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,19 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,25 +1196,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +1238,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,13 +1268,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,25 +1298,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,49 +1352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,13 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,30 +1379,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1413,6 +1389,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,28 +1440,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,6 +1460,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1483,145 +1483,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1982,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -1017,10 +1017,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1032,31 +1032,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,22 +1047,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,39 +1104,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,24 +1128,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,13 +1184,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1322,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,151 +1352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,6 +1396,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1405,19 +1444,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,39 +1467,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,145 +1483,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1982,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0.5</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F58">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G58">
         <v>60</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149">
         <v>0.5</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -1017,10 +1017,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1031,15 +1031,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,8 +1055,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,24 +1116,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,17 +1153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,48 +1168,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,19 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,73 +1202,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,13 +1250,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,55 +1352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,6 +1375,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1389,6 +1404,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1431,50 +1475,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1483,16 +1483,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1501,127 +1501,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1982,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -6280,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F149">
         <v>1.2</v>

--- a/Assets/Data/Animations.xlsx
+++ b/Assets/Data/Animations.xlsx
@@ -1017,9 +1017,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1033,15 +1033,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,25 +1055,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,66 +1109,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,9 +1129,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,6 +1138,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,7 +1184,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1208,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,43 +1238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,25 +1256,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,31 +1322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,37 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,54 +1375,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1437,11 +1389,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1462,16 +1420,58 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1483,16 +1483,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,124 +1504,124 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1982,8 +1982,8 @@
   <sheetPr/>
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
